--- a/Formulas.xlsx
+++ b/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thonyalope\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E705C901-E714-47C2-B472-E94044AB67E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1C979-A9F9-47DD-8D36-88FBB8DE2D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="6" activeTab="9" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="9" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="MAX-MIN" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,10 +303,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,7 +631,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,19 +680,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -714,19 +717,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -751,19 +754,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -788,19 +791,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -819,19 +822,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -850,19 +853,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -881,19 +884,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -912,19 +915,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -943,19 +946,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -983,7 +986,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,19 +1039,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -1073,19 +1076,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -1110,19 +1113,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -1147,19 +1150,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -1184,19 +1187,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -1221,19 +1224,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -1258,19 +1261,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -1295,19 +1298,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -1332,19 +1335,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -1378,7 +1381,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,19 +1433,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -1454,7 +1457,7 @@
       <c r="I2" s="5">
         <v>42253</v>
       </c>
-      <c r="J2" s="4" t="str" cm="1">
+      <c r="J2" s="7" t="str" cm="1">
         <f t="array" ref="J2:J10">IF(D2:D10 &gt; 30, "Old", "Young")</f>
         <v>Young</v>
       </c>
@@ -1467,19 +1470,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -1491,7 +1494,7 @@
       <c r="I3" s="5">
         <v>42287</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="7" t="str">
         <v>Old</v>
       </c>
       <c r="K3" s="4" t="e">
@@ -1502,19 +1505,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -1526,7 +1529,7 @@
       <c r="I4" s="5">
         <v>42986</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="7" t="str">
         <v>Old</v>
       </c>
       <c r="K4" s="4" t="str">
@@ -1537,19 +1540,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -1561,7 +1564,7 @@
       <c r="I5" s="5">
         <v>42341</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="7" t="str">
         <v>Young</v>
       </c>
       <c r="K5" s="4" t="e">
@@ -1572,19 +1575,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -1596,7 +1599,7 @@
       <c r="I6" s="5">
         <v>42977</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="7" t="str">
         <v>Young</v>
       </c>
       <c r="K6" s="4" t="str">
@@ -1607,19 +1610,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -1631,7 +1634,7 @@
       <c r="I7" s="5">
         <v>41528</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="7" t="str">
         <v>Old</v>
       </c>
       <c r="K7" s="4" t="str">
@@ -1642,19 +1645,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -1666,7 +1669,7 @@
       <c r="I8" s="5">
         <v>41551</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="7" t="str">
         <v>Young</v>
       </c>
       <c r="K8" s="4" t="e">
@@ -1677,19 +1680,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -1701,7 +1704,7 @@
       <c r="I9" s="5">
         <v>42116</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="7" t="str">
         <v>Young</v>
       </c>
       <c r="K9" s="4" t="str">
@@ -1712,19 +1715,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -1736,7 +1739,7 @@
       <c r="I10" s="5">
         <v>40800</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="7" t="str">
         <v>Young</v>
       </c>
       <c r="K10" s="4" t="e">
@@ -1756,7 +1759,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E2" sqref="E2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,19 +1811,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -1841,19 +1844,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -1873,19 +1876,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -1905,19 +1908,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -1937,19 +1940,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -1969,19 +1972,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -2001,19 +2004,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -2033,19 +2036,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -2065,19 +2068,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -2106,7 +2109,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,10 +2162,10 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
@@ -2171,7 +2174,7 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -2183,10 +2186,10 @@
       <c r="I2" s="5">
         <v>42253</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="str" cm="1">
+      <c r="K2" s="7" t="str" cm="1">
         <f t="array" ref="K2:K10">LEFT(B2:B10, 3)</f>
         <v>Ant</v>
       </c>
@@ -2200,10 +2203,10 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
@@ -2212,7 +2215,7 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -2224,10 +2227,10 @@
       <c r="I3" s="5">
         <v>42287</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="7" t="str">
         <v>Man</v>
       </c>
       <c r="L3" s="4" t="str">
@@ -2238,10 +2241,10 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
@@ -2250,7 +2253,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -2262,10 +2265,10 @@
       <c r="I4" s="5">
         <v>42986</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="K4" s="7" t="str">
         <v>Nor</v>
       </c>
       <c r="L4" s="4" t="str">
@@ -2277,10 +2280,10 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
@@ -2289,7 +2292,7 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -2301,10 +2304,10 @@
       <c r="I5" s="5">
         <v>42341</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" s="7" t="str">
         <v>Nin</v>
       </c>
       <c r="L5" s="4" t="str">
@@ -2316,10 +2319,10 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
@@ -2328,7 +2331,7 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -2340,10 +2343,10 @@
       <c r="I6" s="5">
         <v>42977</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="7" t="str">
         <v>Jos</v>
       </c>
       <c r="L6" s="4" t="str">
@@ -2355,10 +2358,10 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
@@ -2367,7 +2370,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -2379,10 +2382,10 @@
       <c r="I7" s="5">
         <v>41528</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="7" t="str">
         <v>Vic</v>
       </c>
       <c r="L7" s="4" t="str">
@@ -2394,10 +2397,10 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
@@ -2406,7 +2409,7 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -2418,10 +2421,10 @@
       <c r="I8" s="5">
         <v>41551</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="7" t="str">
         <v>Ale</v>
       </c>
       <c r="L8" s="4" t="str">
@@ -2433,10 +2436,10 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
@@ -2445,7 +2448,7 @@
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -2457,10 +2460,10 @@
       <c r="I9" s="5">
         <v>42116</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="7" t="str">
         <v>Ant</v>
       </c>
       <c r="L9" s="4" t="str">
@@ -2472,10 +2475,10 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
@@ -2484,7 +2487,7 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -2496,10 +2499,10 @@
       <c r="I10" s="5">
         <v>40800</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" s="7" t="str">
         <v>Mar</v>
       </c>
       <c r="L10" s="4" t="str">
@@ -2508,7 +2511,7 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2535,7 +2538,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,19 +2585,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -2616,19 +2619,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -2649,19 +2652,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -2682,19 +2685,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -2715,19 +2718,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -2748,19 +2751,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -2781,19 +2784,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -2814,19 +2817,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -2847,19 +2850,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -2895,7 +2898,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,19 +2944,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -2965,7 +2968,7 @@
       <c r="I2" s="5">
         <v>42253</v>
       </c>
-      <c r="J2" s="4" t="str" cm="1">
+      <c r="J2" s="7" t="str" cm="1">
         <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
         <v>Vargas</v>
       </c>
@@ -2974,19 +2977,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -2998,7 +3001,7 @@
       <c r="I3" s="5">
         <v>42287</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="7" t="str">
         <v>Vargas</v>
       </c>
     </row>
@@ -3006,19 +3009,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -3030,7 +3033,7 @@
       <c r="I4" s="5">
         <v>42986</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="7" t="str">
         <v>Alvarado</v>
       </c>
     </row>
@@ -3038,19 +3041,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -3062,7 +3065,7 @@
       <c r="I5" s="5">
         <v>42341</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="7" t="str">
         <v>Vargas</v>
       </c>
     </row>
@@ -3070,19 +3073,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -3094,7 +3097,7 @@
       <c r="I6" s="5">
         <v>42977</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="7" t="str">
         <v>Vargas</v>
       </c>
     </row>
@@ -3102,19 +3105,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -3126,7 +3129,7 @@
       <c r="I7" s="5">
         <v>41528</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="7" t="str">
         <v>Vargas</v>
       </c>
     </row>
@@ -3134,19 +3137,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -3158,7 +3161,7 @@
       <c r="I8" s="5">
         <v>41551</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="7" t="str">
         <v>Rivera</v>
       </c>
     </row>
@@ -3166,19 +3169,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -3190,7 +3193,7 @@
       <c r="I9" s="5">
         <v>42116</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="7" t="str">
         <v>Castro</v>
       </c>
     </row>
@@ -3198,19 +3201,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -3222,7 +3225,7 @@
       <c r="I10" s="5">
         <v>40800</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="7" t="str">
         <v>Chinchilla</v>
       </c>
     </row>
@@ -3239,7 +3242,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,19 +3291,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -3312,7 +3315,7 @@
       <c r="I2" s="5">
         <v>42253</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="7" t="str">
         <f>CONCATENATE(B2," ",C2)</f>
         <v>Anthony Vargas</v>
       </c>
@@ -3321,19 +3324,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -3345,7 +3348,7 @@
       <c r="I3" s="5">
         <v>42287</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="7" t="str">
         <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3," ",C3)</f>
         <v>Manuel Vargas</v>
       </c>
@@ -3354,19 +3357,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -3378,7 +3381,7 @@
       <c r="I4" s="5">
         <v>42986</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Norma Alvarado</v>
       </c>
@@ -3387,19 +3390,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -3411,7 +3414,7 @@
       <c r="I5" s="5">
         <v>42341</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ninoska Vargas</v>
       </c>
@@ -3420,19 +3423,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -3444,7 +3447,7 @@
       <c r="I6" s="5">
         <v>42977</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Josafat Vargas</v>
       </c>
@@ -3453,19 +3456,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -3477,7 +3480,7 @@
       <c r="I7" s="5">
         <v>41528</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Victor Vargas</v>
       </c>
@@ -3486,19 +3489,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -3510,7 +3513,7 @@
       <c r="I8" s="5">
         <v>41551</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Alejandro Rivera</v>
       </c>
@@ -3519,19 +3522,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -3543,7 +3546,7 @@
       <c r="I9" s="5">
         <v>42116</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Castro</v>
       </c>
@@ -3552,19 +3555,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -3576,7 +3579,7 @@
       <c r="I10" s="5">
         <v>40800</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Marco Chinchilla</v>
       </c>
@@ -3606,7 +3609,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,19 +3659,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -3697,19 +3700,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -3729,19 +3732,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -3761,19 +3764,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -3793,19 +3796,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -3825,19 +3828,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -3857,19 +3860,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -3889,19 +3892,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -3921,19 +3924,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -3959,10 +3962,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,19 +4017,19 @@
       <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4">
@@ -4055,19 +4058,19 @@
       <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4">
@@ -4087,19 +4090,19 @@
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4">
@@ -4119,19 +4122,19 @@
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
@@ -4151,19 +4154,19 @@
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4">
@@ -4183,19 +4186,19 @@
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4">
@@ -4215,19 +4218,19 @@
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -4247,19 +4250,19 @@
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4">
@@ -4279,19 +4282,19 @@
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4">
@@ -4306,6 +4309,10 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
